--- a/Documents & Manuals/Report/Observations.xlsx
+++ b/Documents & Manuals/Report/Observations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>No.of divisions on vernier</t>
   </si>
@@ -76,13 +76,19 @@
   </si>
   <si>
     <t>..\Images Captured\Calibration\Mono Image Calibration\Mono_3000mm_Processed.png</t>
+  </si>
+  <si>
+    <t>..\..\Project File\Images\Calibration\Calibration_Pixel Size Coefficient\Standard Gauge Block_2mm\Calibration_2mm standard_1.png</t>
+  </si>
+  <si>
+    <t>..\..\Project File\Images\Calibration\Calibration_Pixel Size Coefficient\Standard Gauge Block_1005um\Calibration_1005um standard_1.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +133,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,12 +168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,15 +237,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -834,7 +848,7 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -847,12 +861,12 @@
         <f>B7+(C7*B4)</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8">
         <v>0.5</v>
       </c>
@@ -863,10 +877,10 @@
         <f>B8+(C8*B4)</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9">
         <v>0.5</v>
       </c>
@@ -877,10 +891,10 @@
         <f>B9+(C9*B4)</f>
         <v>0.51</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B10">
@@ -893,12 +907,12 @@
         <f>B10+(C10*B4)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="15">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11">
         <v>0.5</v>
       </c>
@@ -909,10 +923,10 @@
         <f>B11+(C11*B4)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12">
         <v>0.5</v>
       </c>
@@ -923,10 +937,10 @@
         <f>B12+(C12*B4)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B13">
@@ -939,12 +953,12 @@
         <f>B13+(C13*B4)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="15">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13"/>
+      <c r="A14" s="15"/>
       <c r="B14">
         <v>0.5</v>
       </c>
@@ -955,10 +969,10 @@
         <f>B14+(C14*B4)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15">
         <v>0.5</v>
       </c>
@@ -969,7 +983,7 @@
         <f>B15+(C15*B4)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
@@ -1026,7 +1040,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1069,20 +1083,20 @@
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="45">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>1.0049999999999999</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>1005</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>53.8</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <f>A3/C3</f>
         <v>1.8680297397769517E-2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <f>B3/C3</f>
         <v>18.680297397769518</v>
       </c>
@@ -1091,21 +1105,21 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <f>A4*1000</f>
         <v>2000</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>108.8</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f>A4/C4</f>
         <v>1.8382352941176471E-2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <f>B4/C4</f>
         <v>18.382352941176471</v>
       </c>
@@ -1113,21 +1127,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75">
-      <c r="A5" s="17">
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="14">
         <v>1.0049999999999999</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>1005</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>56.32</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <f>A5/C5</f>
         <v>1.7844460227272724E-2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <f>B5/C5</f>
         <v>17.844460227272727</v>
       </c>
@@ -1135,21 +1149,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75">
-      <c r="A6" s="16">
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>2000</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>112.8</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f>A6/C6</f>
         <v>1.7730496453900711E-2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <f>B6/C6</f>
         <v>17.730496453900709</v>
       </c>
@@ -1157,21 +1171,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="75">
-      <c r="A7" s="16">
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>3000</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>167.74</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <f>A7/C7</f>
         <v>1.7884821747943244E-2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <f>B7/C7</f>
         <v>17.884821747943246</v>
       </c>
@@ -1179,17 +1193,49 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+    <row r="8" spans="1:7" ht="90">
+      <c r="A8" s="16">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="16">
+        <v>109.97</v>
+      </c>
+      <c r="D8" s="16">
+        <f>A8/C8</f>
+        <v>1.8186778212239702E-2</v>
+      </c>
+      <c r="E8" s="16">
+        <f>B8/C8</f>
+        <v>18.186778212239702</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90">
+      <c r="A9" s="14">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="14">
+        <v>55.96</v>
+      </c>
+      <c r="D9" s="14">
+        <f>A9/C9</f>
+        <v>1.7959256611865617E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <f>B9/C9</f>
+        <v>17.959256611865619</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2"/>
@@ -1210,18 +1256,17 @@
       <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2"/>
     <hyperlink ref="F5" r:id="rId3"/>
     <hyperlink ref="F6" r:id="rId4"/>
     <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
